--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1738" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4676AD-36A0-4FB5-A815-B935905555D1}"/>
+  <xr:revisionPtr revIDLastSave="1746" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E273FC1-6B00-4AE6-9164-76552FDDAD5C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
   <si>
     <t>システムゲイン</t>
     <phoneticPr fontId="1"/>
@@ -1104,16 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイバー開口率</t>
-    <rPh sb="5" eb="7">
-      <t>カイコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1pixelが見込む立体角</t>
     <rPh sb="7" eb="9">
       <t>ミコ</t>
@@ -1138,6 +1128,28 @@
     <rPh sb="14" eb="17">
       <t>ヒカクヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l_f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合損失</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ_f_coupling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ_f_unit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1552,6 +1564,48 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,48 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1925,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1954,30 +1966,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="K1" s="54" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="K1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="P1" s="53" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="P1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="D2" s="23" t="s">
@@ -2099,7 +2111,7 @@
       <c r="L4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="53" t="s">
         <v>143</v>
       </c>
       <c r="N4" s="34" t="s">
@@ -2150,26 +2162,26 @@
         <v>2552.5691000000002</v>
       </c>
       <c r="K5" s="32">
-        <f>$F$27 * F5 * (2*G5+1) *$X$20*$X$19*(E5*10^2)*H5 * EXP(-((I5*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" ref="K5:K16" si="0">$F$27 * F5 * (2*G5+1) *$X$20*$X$19*(E5*10^2)*H5 * EXP(-((I5*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
         <v>6.3746514124132658E-7</v>
       </c>
       <c r="L5" s="44">
-        <f>((K5 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>7676.1808547893661</v>
+        <f t="shared" ref="L5:L16" si="1">((K5 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
+        <v>6591.8666740121225</v>
       </c>
       <c r="M5" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>40005.291219404367</v>
+        <f t="shared" ref="M5:M16" si="2">(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
+        <v>34354.26430955001</v>
       </c>
       <c r="N5" s="45">
         <f>L5/SQRT(L5 + M5 + $L$26 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>32.558837501013087</v>
+        <v>29.825002453698012</v>
       </c>
       <c r="O5" s="44"/>
       <c r="R5" s="46"/>
       <c r="S5" s="43">
         <f>L5/N5</f>
-        <v>235.76335778421196</v>
+        <v>221.01814356078268</v>
       </c>
       <c r="V5" s="47"/>
       <c r="W5" s="48"/>
@@ -2183,7 +2195,7 @@
         <v>3.9855</v>
       </c>
       <c r="E6" s="42">
-        <f t="shared" ref="E6:E16" si="0">1/(D6*10^-6) * 10^-2</f>
+        <f t="shared" ref="E6:E16" si="3">1/(D6*10^-6) * 10^-2</f>
         <v>2509.0954710826745</v>
       </c>
       <c r="F6" s="43">
@@ -2199,20 +2211,20 @@
         <v>2961.84</v>
       </c>
       <c r="K6" s="32">
-        <f>$F$27 * F6 * (2*G6+1) *$X$20*$X$19*(E6*10^2)*H6 * EXP(-((I6*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.4366184456731951E-6</v>
       </c>
       <c r="L6" s="44">
-        <f>((K6 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D6*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>17441.594878402204</v>
+        <f t="shared" si="1"/>
+        <v>14977.847733853952</v>
       </c>
       <c r="M6" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D6*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>40334.198875521412</v>
+        <f t="shared" si="2"/>
+        <v>34636.71146109578</v>
       </c>
       <c r="N6" s="45">
-        <f>L6/SQRT(L6 + M6 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>63.286466797720884</v>
+        <f t="shared" ref="N6:N16" si="4">L6/SQRT(L6 + M6 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
+        <v>57.525143978830073</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6">
@@ -2221,35 +2233,35 @@
       </c>
       <c r="Q6" s="24">
         <f>L6/$L$5</f>
-        <v>2.2721709152436067</v>
+        <v>2.2721709152436063</v>
       </c>
       <c r="R6" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I6-I$5)*10^2) / (LN(P6) - LN(Q6))</f>
+        <f t="shared" ref="R6:R16" si="5">$X$20*$X$19/$X$21 * ((I6-I$5)*10^2) / (LN(P6) - LN(Q6))</f>
         <v>605.04793819016436</v>
       </c>
       <c r="S6" s="43">
         <f>L6/N6</f>
-        <v>275.59754495617256</v>
+        <v>260.37045190822948</v>
       </c>
       <c r="T6" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I6 - I$5)*10^2) * (LN(P6) - LN(Q6))^-2 / Q6 )</f>
+        <f t="shared" ref="T6:T16" si="6">ABS(- $X$20*$X$19/$X$21 * ((I6 - I$5)*10^2) * (LN(P6) - LN(Q6))^-2 / Q6 )</f>
         <v>273.61142830558987</v>
       </c>
       <c r="U6">
         <f>SQRT( (1/L$5 * S6)^2 + (L6/L$5^2 * S$5)^2)</f>
-        <v>7.8480525688836011E-2</v>
+        <v>8.5814132817726971E-2</v>
       </c>
       <c r="V6" s="38">
         <f>T6*U6</f>
-        <v>21.47316872789596</v>
+        <v>23.479727449063869</v>
       </c>
       <c r="W6" s="39">
         <f>R6/V6</f>
-        <v>28.17692841970463</v>
+        <v>25.768950661916115</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2259,7 +2271,7 @@
         <v>3.4127999999999998</v>
       </c>
       <c r="E7" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2930.1453352086264</v>
       </c>
       <c r="F7">
@@ -2275,20 +2287,20 @@
         <v>3382.9299000000001</v>
       </c>
       <c r="K7" s="32">
-        <f>$F$27 * F7 * (2*G7+1) *$X$20*$X$19*(E7*10^2)*H7 * EXP(-((I7*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>4.1735200516951176E-7</v>
       </c>
       <c r="L7" s="44">
-        <f>((K7 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D7*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>4338.8564865856506</v>
+        <f t="shared" si="1"/>
+        <v>3725.9626913819097</v>
       </c>
       <c r="M7" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D7*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34538.339962960585</v>
+        <f t="shared" si="2"/>
+        <v>29659.558116780237</v>
       </c>
       <c r="N7" s="45">
-        <f>L7/SQRT(L7 + M7 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>18.164643223799917</v>
+        <f t="shared" si="4"/>
+        <v>16.408403336363033</v>
       </c>
       <c r="P7">
         <f>(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
@@ -2299,32 +2311,32 @@
         <v>0.56523635498745795</v>
       </c>
       <c r="R7" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I7-I$5)*10^2) / (LN(P7) - LN(Q7))</f>
+        <f t="shared" si="5"/>
         <v>558.76506727236131</v>
       </c>
       <c r="S7">
         <f>L7/N7</f>
-        <v>238.86274192827179</v>
+        <v>227.07649336756123</v>
       </c>
       <c r="T7" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I7 - I$5)*10^2) * (LN(P7) - LN(Q7))^-2 / Q7 )</f>
+        <f t="shared" si="6"/>
         <v>462.34705326214009</v>
       </c>
       <c r="U7">
         <f>SQRT( (1/L$5 * S7)^2 + (L7/L$5^2 * S$5)^2)</f>
-        <v>3.5632537371678957E-2</v>
+        <v>3.931707820742851E-2</v>
       </c>
       <c r="V7" s="38">
         <f>T7*U7</f>
-        <v>16.474598654048847</v>
+        <v>18.178135252081677</v>
       </c>
       <c r="W7" s="39">
         <f>R7/V7</f>
-        <v>33.916763558609517</v>
+        <v>30.738305085961667</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>3.4148999999999998</v>
       </c>
       <c r="E8" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2928.343436118188</v>
       </c>
       <c r="F8">
@@ -2348,56 +2360,56 @@
         <v>3359.002</v>
       </c>
       <c r="K8" s="32">
-        <f>$F$27 * F8 * (2*G8+1) *$X$20*$X$19*(E8*10^2)*H8 * EXP(-((I8*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.3729366469159757E-7</v>
       </c>
       <c r="L8" s="44">
-        <f>((K8 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D8*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>1428.2046116671072</v>
+        <f t="shared" si="1"/>
+        <v>1226.460731112772</v>
       </c>
       <c r="M8" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D8*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34559.592457663544</v>
+        <f t="shared" si="2"/>
+        <v>29677.80854811089</v>
       </c>
       <c r="N8" s="45">
-        <f>L8/SQRT(L8 + M8 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>6.1365885850627429</v>
+        <f t="shared" si="4"/>
+        <v>5.5359274271093017</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P17" si="1">(F8*(2*G8+1)*E8*H8) / (F$5*(2*G$5+1)*E$5*H$5)</f>
+        <f t="shared" ref="P8:P16" si="7">(F8*(2*G8+1)*E8*H8) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>1.4894660524107943</v>
       </c>
       <c r="Q8" s="24">
-        <f t="shared" ref="Q8:Q16" si="2">L8/$L$5</f>
-        <v>0.18605666524597497</v>
+        <f t="shared" ref="Q8:Q16" si="8">L8/$L$5</f>
+        <v>0.186056665245975</v>
       </c>
       <c r="R8" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I8-I$5)*10^2) / (LN(P8) - LN(Q8))</f>
+        <f t="shared" si="5"/>
         <v>557.79288081214361</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S16" si="3">L8/N8</f>
-        <v>232.73592352981646</v>
+        <f t="shared" ref="S8:S16" si="9">L8/N8</f>
+        <v>221.54566642380891</v>
       </c>
       <c r="T8" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I8 - I$5)*10^2) * (LN(P8) - LN(Q8))^-2 / Q8 )</f>
-        <v>1441.2489018307506</v>
+        <f t="shared" si="6"/>
+        <v>1441.2489018307504</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U16" si="4">SQRT( (1/L$5 * S8)^2 + (L8/L$5^2 * S$5)^2)</f>
-        <v>3.0853057797019693E-2</v>
+        <f t="shared" ref="U8:U16" si="10">SQRT( (1/L$5 * S8)^2 + (L8/L$5^2 * S$5)^2)</f>
+        <v>3.4182994540353076E-2</v>
       </c>
       <c r="V8" s="38">
-        <f t="shared" ref="V8:V16" si="5">T8*U8</f>
-        <v>44.466935668075308</v>
+        <f t="shared" ref="V8:V16" si="11">T8*U8</f>
+        <v>49.266203342570407</v>
       </c>
       <c r="W8" s="39">
-        <f t="shared" ref="W8:W16" si="6">R8/V8</f>
-        <v>12.543991899414978</v>
+        <f t="shared" ref="W8:W16" si="12">R8/V8</f>
+        <v>11.322018807366888</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="56"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>3.4207000000000001</v>
       </c>
       <c r="E9" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2923.3782559125325</v>
       </c>
       <c r="F9">
@@ -2421,56 +2433,56 @@
         <v>3287.2629000000002</v>
       </c>
       <c r="K9" s="32">
-        <f>$F$27 * F9 * (2*G9+1) *$X$20*$X$19*(E9*10^2)*H9 * EXP(-((I9*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.2815183152777711E-7</v>
       </c>
       <c r="L9" s="44">
-        <f>((K9 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D9*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>1335.3704082852473</v>
+        <f t="shared" si="1"/>
+        <v>1146.7400076100769</v>
       </c>
       <c r="M9" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D9*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34618.289823985964</v>
+        <f t="shared" si="2"/>
+        <v>29728.214501309831</v>
       </c>
       <c r="N9" s="45">
-        <f>L9/SQRT(L9 + M9 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>5.7395153258458862</v>
+        <f t="shared" si="4"/>
+        <v>5.1776350575712318</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1705616422925744</v>
       </c>
       <c r="Q9" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.17396286428713773</v>
       </c>
       <c r="R9" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I9-I$5)*10^2) / (LN(P9) - LN(Q9))</f>
+        <f t="shared" si="5"/>
         <v>554.480760762459</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
-        <v>232.66257383648352</v>
+        <f t="shared" si="9"/>
+        <v>221.47949688597777</v>
       </c>
       <c r="T9" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I9 - I$5)*10^2) * (LN(P9) - LN(Q9))^-2 / Q9 )</f>
+        <f t="shared" si="6"/>
         <v>1671.9241241640348</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
-        <v>3.0777013933569779E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4101433385914509E-2</v>
       </c>
       <c r="V9" s="38">
-        <f t="shared" si="5"/>
-        <v>51.456832065267946</v>
+        <f t="shared" si="11"/>
+        <v>57.015009146483287</v>
       </c>
       <c r="W9" s="39">
-        <f t="shared" si="6"/>
-        <v>10.775648995631027</v>
+        <f t="shared" si="12"/>
+        <v>9.7251718286650419</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="57"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>3.427</v>
       </c>
       <c r="E10" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2918.0040852057195</v>
       </c>
       <c r="F10">
@@ -2494,56 +2506,56 @@
         <v>3169.252</v>
       </c>
       <c r="K10" s="32">
-        <f>$F$27 * F10 * (2*G10+1) *$X$20*$X$19*(E10*10^2)*H10 * EXP(-((I10*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.6774403049746973E-7</v>
       </c>
       <c r="L10" s="44">
-        <f>((K10 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D10*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>1751.1490840225308</v>
+        <f t="shared" si="1"/>
+        <v>1503.7870402692233</v>
       </c>
       <c r="M10" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D10*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34682.047308094807</v>
+        <f t="shared" si="2"/>
+        <v>29782.965795301767</v>
       </c>
       <c r="N10" s="45">
-        <f>L10/SQRT(L10 + M10 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>7.4934433562404319</v>
+        <f t="shared" si="4"/>
+        <v>6.7614132581194291</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1545625272500089</v>
       </c>
       <c r="Q10" s="24">
-        <f t="shared" si="2"/>
-        <v>0.22812764799958354</v>
+        <f t="shared" si="8"/>
+        <v>0.2281276479995836</v>
       </c>
       <c r="R10" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I10-I$5)*10^2) / (LN(P10) - LN(Q10))</f>
-        <v>547.16623520349719</v>
+        <f t="shared" si="5"/>
+        <v>547.16623520349731</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
-        <v>233.6908415493925</v>
+        <f t="shared" si="9"/>
+        <v>222.40720731918046</v>
       </c>
       <c r="T10" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I10 - I$5)*10^2) * (LN(P10) - LN(Q10))^-2 / Q10 )</f>
-        <v>1479.1263579353126</v>
+        <f t="shared" si="6"/>
+        <v>1479.1263579353124</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
-        <v>3.1239521274438617E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4595788027130883E-2</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="5"/>
-        <v>46.207199326303105</v>
+        <f t="shared" si="11"/>
+        <v>51.171541944472189</v>
       </c>
       <c r="W10" s="39">
-        <f t="shared" si="6"/>
-        <v>11.841579736082963</v>
+        <f t="shared" si="12"/>
+        <v>10.692783809353335</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2553,7 +2565,7 @@
         <v>3.4546999999999999</v>
       </c>
       <c r="E11" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2894.6073465134459</v>
       </c>
       <c r="F11">
@@ -2569,56 +2581,56 @@
         <v>3489.2150999999999</v>
       </c>
       <c r="K11" s="32">
-        <f>$F$27 * F11 * (2*G11+1) *$X$20*$X$19*(E11*10^2)*H11 * EXP(-((I11*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.3833822868470706E-7</v>
       </c>
       <c r="L11" s="44">
-        <f>((K11 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D11*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>1455.842835477582</v>
+        <f t="shared" si="1"/>
+        <v>1250.1948626961212</v>
       </c>
       <c r="M11" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D11*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34962.377833462255</v>
+        <f t="shared" si="2"/>
+        <v>30023.697675234613</v>
       </c>
       <c r="N11" s="45">
-        <f>L11/SQRT(L11 + M11 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>6.2306356549136481</v>
+        <f t="shared" si="4"/>
+        <v>5.6219284765815454</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.0508270783837399</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18965718278631283</v>
       </c>
       <c r="R11" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I11-I$5)*10^2) / (LN(P11) - LN(Q11))</f>
+        <f t="shared" si="5"/>
         <v>566.04327713544251</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
-        <v>233.65879761071648</v>
+        <f t="shared" si="9"/>
+        <v>222.37829383704846</v>
       </c>
       <c r="T11" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I11 - I$5)*10^2) * (LN(P11) - LN(Q11))^-2 / Q11 )</f>
+        <f t="shared" si="6"/>
         <v>1253.6058809047045</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
-        <v>3.0991805849054848E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4329349134759886E-2</v>
       </c>
       <c r="V11" s="38">
-        <f t="shared" si="5"/>
-        <v>38.851510072231974</v>
+        <f t="shared" si="11"/>
+        <v>43.035473962965824</v>
       </c>
       <c r="W11" s="39">
-        <f t="shared" si="6"/>
-        <v>14.569402220996452</v>
+        <f t="shared" si="12"/>
+        <v>13.152946279214934</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="57"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>3.4548000000000001</v>
       </c>
       <c r="E12" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2894.52356142179</v>
       </c>
       <c r="F12">
@@ -2642,56 +2654,56 @@
         <v>3332.4121</v>
       </c>
       <c r="K12" s="32">
-        <f>$F$27 * F12 * (2*G12+1) *$X$20*$X$19*(E12*10^2)*H12 * EXP(-((I12*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.9680215771456142E-7</v>
       </c>
       <c r="L12" s="44">
-        <f>((K12 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D12*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>2071.1650529729668</v>
+        <f t="shared" si="1"/>
+        <v>1778.5985175886901</v>
       </c>
       <c r="M12" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D12*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34963.389857019531</v>
+        <f t="shared" si="2"/>
+        <v>30024.566743393221</v>
       </c>
       <c r="N12" s="45">
-        <f>L12/SQRT(L12 + M12 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>8.8144445420163304</v>
+        <f t="shared" si="4"/>
+        <v>7.9556159894860157</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.0031739976454572</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.26981712548900066</v>
       </c>
       <c r="R12" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I12-I$5)*10^2) / (LN(P12) - LN(Q12))</f>
+        <f t="shared" si="5"/>
         <v>559.68256383508378</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
-        <v>234.97397290325247</v>
+        <f t="shared" si="9"/>
+        <v>223.56515446940259</v>
       </c>
       <c r="T12" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I12 - I$5)*10^2) * (LN(P12) - LN(Q12))^-2 / Q12 )</f>
+        <f t="shared" si="6"/>
         <v>1034.6974779813049</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
-        <v>3.1712709962511049E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5101141116107251E-2</v>
       </c>
       <c r="V12" s="38">
-        <f t="shared" si="5"/>
-        <v>32.813061018162784</v>
+        <f t="shared" si="11"/>
+        <v>36.319062187102062</v>
       </c>
       <c r="W12" s="39">
-        <f t="shared" si="6"/>
-        <v>17.056700791349108</v>
+        <f t="shared" si="12"/>
+        <v>15.410160123403271</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2701,7 +2713,7 @@
         <v>3.5308000000000002</v>
       </c>
       <c r="E13" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2832.2193270646881</v>
       </c>
       <c r="F13">
@@ -2717,56 +2729,56 @@
         <v>3196.0990999999999</v>
       </c>
       <c r="K13" s="32">
-        <f>$F$27 * F13 * (2*G13+1) *$X$20*$X$19*(E13*10^2)*H13 * EXP(-((I13*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>7.9708104528459166E-8</v>
       </c>
       <c r="L13" s="44">
-        <f>((K13 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D13*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>857.30931505817068</v>
+        <f t="shared" si="1"/>
+        <v>736.20838411150044</v>
       </c>
       <c r="M13" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D13*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>35732.527760554753</v>
+        <f t="shared" si="2"/>
+        <v>30685.058543930998</v>
       </c>
       <c r="N13" s="45">
-        <f>L13/SQRT(L13 + M13 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>3.6633119527773128</v>
+        <f t="shared" si="4"/>
+        <v>3.3056905591701389</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.58510257915491859</v>
       </c>
       <c r="Q13" s="24">
-        <f t="shared" si="2"/>
-        <v>0.11168435596762594</v>
+        <f t="shared" si="8"/>
+        <v>0.11168435596762595</v>
       </c>
       <c r="R13" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I13-I$5)*10^2) / (LN(P13) - LN(Q13))</f>
+        <f t="shared" si="5"/>
         <v>559.07870609384429</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
-        <v>234.02574667663995</v>
+        <f t="shared" si="9"/>
+        <v>222.70940698584877</v>
       </c>
       <c r="T13" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I13 - I$5)*10^2) * (LN(P13) - LN(Q13))^-2 / Q13 )</f>
-        <v>3022.6738332367931</v>
+        <f t="shared" si="6"/>
+        <v>3022.6738332367927</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
-        <v>3.067963023703266E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.3992372419289069E-2</v>
       </c>
       <c r="V13" s="38">
-        <f t="shared" si="5"/>
-        <v>92.734515530858943</v>
+        <f t="shared" si="11"/>
+        <v>102.74785464142512</v>
       </c>
       <c r="W13" s="39">
-        <f t="shared" si="6"/>
-        <v>6.0288092615074005</v>
+        <f t="shared" si="12"/>
+        <v>5.4412689008928377</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="56"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>3.5335999999999999</v>
       </c>
       <c r="E14" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2829.9750962191533</v>
       </c>
       <c r="F14">
@@ -2790,56 +2802,56 @@
         <v>3081.1588999999999</v>
       </c>
       <c r="K14" s="32">
-        <f>$F$27 * F14 * (2*G14+1) *$X$20*$X$19*(E14*10^2)*H14 * EXP(-((I14*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>4.9699076204168547E-7</v>
       </c>
       <c r="L14" s="44">
-        <f>((K14 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D14*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>5349.6780379597494</v>
+        <f t="shared" si="1"/>
+        <v>4593.9986358084698</v>
       </c>
       <c r="M14" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D14*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>35760.864420158679</v>
+        <f t="shared" si="2"/>
+        <v>30709.392452371849</v>
       </c>
       <c r="N14" s="45">
-        <f>L14/SQRT(L14 + M14 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>21.970577790689813</v>
+        <f t="shared" si="4"/>
+        <v>19.86500366043116</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.7693423850317664</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.69691922834542752</v>
+        <f t="shared" si="8"/>
+        <v>0.69691922834542774</v>
       </c>
       <c r="R14" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I14-I$5)*10^2) / (LN(P14) - LN(Q14))</f>
+        <f t="shared" si="5"/>
         <v>551.22506762590467</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
-        <v>243.49282430918649</v>
+        <f t="shared" si="9"/>
+        <v>231.26090054336086</v>
       </c>
       <c r="T14" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I14 - I$5)*10^2) * (LN(P14) - LN(Q14))^-2 / Q14 )</f>
-        <v>573.27528473696316</v>
+        <f t="shared" si="6"/>
+        <v>573.27528473696327</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
-        <v>3.8267022181523551E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.2152277293627985E-2</v>
       </c>
       <c r="V14" s="38">
-        <f t="shared" si="5"/>
-        <v>21.937538037148599</v>
+        <f t="shared" si="11"/>
+        <v>24.164858767816014</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" si="6"/>
-        <v>25.127025042302872</v>
+        <f t="shared" si="12"/>
+        <v>22.811019626568402</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="56"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>3.5384000000000002</v>
       </c>
       <c r="E15" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2826.1361067148996</v>
       </c>
       <c r="F15">
@@ -2863,56 +2875,56 @@
         <v>2999.355</v>
       </c>
       <c r="K15" s="32">
-        <f>$F$27 * F15 * (2*G15+1) *$X$20*$X$19*(E15*10^2)*H15 * EXP(-((I15*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>2.0286674900304395E-7</v>
       </c>
       <c r="L15" s="44">
-        <f>((K15 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D15*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>2186.6523384423249</v>
+        <f t="shared" si="1"/>
+        <v>1877.7724170523293</v>
       </c>
       <c r="M15" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D15*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>35809.441550908276</v>
+        <f t="shared" si="2"/>
+        <v>30751.107723984769</v>
       </c>
       <c r="N15" s="45">
-        <f>L15/SQRT(L15 + M15 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>9.225945345406334</v>
+        <f t="shared" si="4"/>
+        <v>8.3306863033468819</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.92906664077249623</v>
       </c>
       <c r="Q15" s="24">
-        <f t="shared" si="2"/>
-        <v>0.28486201404152905</v>
+        <f t="shared" si="8"/>
+        <v>0.28486201404152917</v>
       </c>
       <c r="R15" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I15-I$5)*10^2) / (LN(P15) - LN(Q15))</f>
-        <v>543.76462868521332</v>
+        <f t="shared" si="5"/>
+        <v>543.76462868521344</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
-        <v>237.01119577204901</v>
+        <f t="shared" si="9"/>
+        <v>225.4042882754963</v>
       </c>
       <c r="T15" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I15 - I$5)*10^2) * (LN(P15) - LN(Q15))^-2 / Q15 )</f>
-        <v>1614.7096232520678</v>
+        <f t="shared" si="6"/>
+        <v>1614.7096232520682</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
-        <v>3.2091844395047822E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5503157125176675E-2</v>
       </c>
       <c r="V15" s="38">
-        <f t="shared" si="5"/>
-        <v>51.819009972591651</v>
+        <f t="shared" si="11"/>
+        <v>57.327289465853013</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="6"/>
-        <v>10.493535653668872</v>
+        <f t="shared" si="12"/>
+        <v>9.4852666810473689</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="57"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2932,7 @@
         <v>3.5421</v>
       </c>
       <c r="E16" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2823.1839869004261</v>
       </c>
       <c r="F16">
@@ -2936,52 +2948,52 @@
         <v>2928.3181</v>
       </c>
       <c r="K16" s="32">
-        <f>$F$27 * F16 * (2*G16+1) *$X$20*$X$19*(E16*10^2)*H16 * EXP(-((I16*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
+        <f t="shared" si="0"/>
         <v>1.2459790722788288E-7</v>
       </c>
       <c r="L16" s="44">
-        <f>((K16 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D16*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>1344.4154936435823</v>
+        <f t="shared" si="1"/>
+        <v>1154.5074114616941</v>
       </c>
       <c r="M16" s="44">
-        <f>(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D16*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>35846.886422527758</v>
+        <f t="shared" si="2"/>
+        <v>30783.263245853053</v>
       </c>
       <c r="N16" s="45">
-        <f>L16/SQRT(L16 + M16 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>5.7134462931566858</v>
+        <f t="shared" si="4"/>
+        <v>5.1571361330921288</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.48124628561375116</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="2"/>
-        <v>0.17514119574251133</v>
+        <f t="shared" si="8"/>
+        <v>0.1751411957425113</v>
       </c>
       <c r="R16" s="36">
-        <f>$X$20*$X$19/$X$21 * ((I16-I$5)*10^2) / (LN(P16) - LN(Q16))</f>
-        <v>534.84974768160953</v>
+        <f t="shared" si="5"/>
+        <v>534.84974768160941</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
-        <v>235.30727772025509</v>
+        <f t="shared" si="9"/>
+        <v>223.86599493728539</v>
       </c>
       <c r="T16" s="24">
-        <f>ABS(- $X$20*$X$19/$X$21 * ((I16 - I$5)*10^2) * (LN(P16) - LN(Q16))^-2 / Q16 )</f>
-        <v>3021.231277049782</v>
+        <f t="shared" si="6"/>
+        <v>3021.2312770497811</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
-        <v>3.1122608435910526E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4464900301556523E-2</v>
       </c>
       <c r="V16" s="38">
-        <f t="shared" si="5"/>
-        <v>94.028598029946281</v>
+        <f t="shared" si="11"/>
+        <v>104.126434751465</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="6"/>
-        <v>5.6881603989381002</v>
+        <f t="shared" si="12"/>
+        <v>5.1365414455821883</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
@@ -3052,14 +3064,14 @@
         <v>172</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
         <v>112</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L19" s="22">
         <f>2.35*10^-11*L21</f>
@@ -3071,7 +3083,7 @@
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="68" t="s">
+      <c r="Q19" s="63" t="s">
         <v>164</v>
       </c>
       <c r="R19" s="22" cm="1">
@@ -3215,7 +3227,7 @@
       <c r="K22" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="54">
         <f>0.072*10^-12</f>
         <v>7.1999999999999996E-14</v>
       </c>
@@ -3228,14 +3240,14 @@
       <c r="Q22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="62">
+      <c r="R22" s="57">
         <v>0.66</v>
       </c>
       <c r="T22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="U22" s="69"/>
-      <c r="V22" s="70" t="s">
+      <c r="U22" s="64"/>
+      <c r="V22" s="65" t="s">
         <v>138</v>
       </c>
       <c r="W22" s="25" t="s">
@@ -3270,7 +3282,7 @@
       <c r="K23" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="57">
         <v>0.69899999999999995</v>
       </c>
       <c r="N23" s="10" t="s">
@@ -3281,7 +3293,7 @@
       <c r="Q23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="R23" s="65">
+      <c r="R23" s="60">
         <f>0.99*0.98*0.7</f>
         <v>0.67913999999999997</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>64</v>
       </c>
       <c r="U23" s="11"/>
-      <c r="V23" s="60" t="s">
+      <c r="V23" s="55" t="s">
         <v>85</v>
       </c>
       <c r="W23" s="11" t="s">
@@ -3324,7 +3336,7 @@
       <c r="K24" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="58">
         <f>10/2^16</f>
         <v>1.52587890625E-4</v>
       </c>
@@ -3412,20 +3424,22 @@
       <c r="K26" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="57">
         <f>$F$24/$L$25 *$F$26 * $L$31</f>
         <v>7706.4931743399939</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O26" s="71"/>
-      <c r="P26" s="8"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="Q26" s="25" t="s">
         <v>100</v>
       </c>
       <c r="R26" s="9">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="T26">
         <v>100</v>
@@ -3447,18 +3461,18 @@
       <c r="E27" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="54">
         <v>5000000000000000</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="60">
         <f>($F$23 / $L$25)^2 * $L$31</f>
         <v>196.39562515260886</v>
       </c>
@@ -3466,7 +3480,9 @@
         <v>174</v>
       </c>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="Q27" s="25" t="s">
         <v>164</v>
       </c>
@@ -3490,16 +3506,19 @@
       <c r="D28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="56">
         <f>2.99 * 10^-6</f>
         <v>2.9900000000000002E-6</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>100</v>
@@ -3535,7 +3554,7 @@
         <v>173</v>
       </c>
       <c r="O29" s="11"/>
-      <c r="P29" s="60" t="s">
+      <c r="P29" s="55" t="s">
         <v>102</v>
       </c>
       <c r="Q29" s="11" t="s">
@@ -3543,7 +3562,7 @@
       </c>
       <c r="R29" s="12">
         <f>$R$26^$R$27 * $R$28</f>
-        <v>0.43002917732064416</v>
+        <v>0.36928455132270177</v>
       </c>
       <c r="T29">
         <v>400</v>
@@ -3555,7 +3574,7 @@
       <c r="W29"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="61" t="s">
         <v>54</v>
       </c>
       <c r="I30" s="6"/>
@@ -3563,7 +3582,7 @@
       <c r="K30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="67">
+      <c r="L30" s="62">
         <v>0.7</v>
       </c>
       <c r="M30" s="8"/>
@@ -3669,7 +3688,7 @@
         <v>108</v>
       </c>
       <c r="O33" s="11"/>
-      <c r="P33" s="60" t="s">
+      <c r="P33" s="55" t="s">
         <v>103</v>
       </c>
       <c r="Q33" s="11" t="s">
@@ -3677,7 +3696,7 @@
       </c>
       <c r="R33" s="12">
         <f>R21*R29*L32</f>
-        <v>0.10940660860113191</v>
+        <v>9.3952160689976222E-2</v>
       </c>
       <c r="T33">
         <v>800</v>
@@ -3801,12 +3820,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3850,29 +3869,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="K1" s="54" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="K1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="O1" s="53" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="O1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.4">
       <c r="D2" s="23" t="s">
@@ -4031,7 +4050,7 @@
       <c r="V5" s="48"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4056,7 +4075,7 @@
         <v>3382.9299000000001</v>
       </c>
       <c r="K6" s="32">
-        <f t="shared" ref="K5:K15" si="1">$D$26 * F6 * (2*G6+1) *$I$19*(E6*10^2)*H6 * EXP(-(I6*$I$21)/($I$20*$D$19)) / (4*PI()*$I$22)</f>
+        <f t="shared" ref="K6:K15" si="1">$D$26 * F6 * (2*G6+1) *$I$19*(E6*10^2)*H6 * EXP(-(I6*$I$21)/($I$20*$D$19)) / (4*PI()*$I$22)</f>
         <v>2.0935068690906984E-6</v>
       </c>
       <c r="L6" s="19">
@@ -4101,7 +4120,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="56"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4133,11 +4152,11 @@
         <v>0.34341567248515903</v>
       </c>
       <c r="M7" s="35">
-        <f t="shared" ref="M5:M15" si="5">(L7*$D$25)/SQRT((L7*$D$25)+($D$22/$D$24)^2*$I$32+($D$23 / $D$24) * $D$25 * $I$32)</f>
+        <f t="shared" ref="M7:M15" si="5">(L7*$D$25)/SQRT((L7*$D$25)+($D$22/$D$24)^2*$I$32+($D$23 / $D$24) * $D$25 * $I$32)</f>
         <v>5.1530962346111275</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O6:O15" si="6">(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
+        <f t="shared" ref="O7:O15" si="6">(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>1.4894660524107948</v>
       </c>
       <c r="P7" s="24">
@@ -4170,7 +4189,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4258,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="57"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4307,7 +4326,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4377,7 +4396,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="57"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4445,7 +4464,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4515,7 +4534,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="56"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4602,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B14" s="56"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4651,7 +4670,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B15" s="57"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1746" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E273FC1-6B00-4AE6-9164-76552FDDAD5C}"/>
+  <xr:revisionPtr revIDLastSave="1758" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B68C1AB-F9A4-4C62-B161-A9B32DBAC42F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="190">
   <si>
     <t>システムゲイン</t>
     <phoneticPr fontId="1"/>
@@ -1150,6 +1150,18 @@
   </si>
   <si>
     <t>τ_f_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ_s_lens</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ_s_mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ_s_grating</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1606,19 +1618,19 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1938,7 +1950,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1966,30 +1978,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="K1" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="P1" s="67" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="P1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="D2" s="23" t="s">
@@ -2261,7 +2273,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2336,7 +2348,7 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="70"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2409,7 +2421,7 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="70"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2494,7 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="71"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2567,7 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2630,7 +2642,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="71"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2703,7 +2715,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2778,7 +2790,7 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="70"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2851,7 +2863,7 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="70"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2924,7 +2936,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="71"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3676,7 +3688,9 @@
         <v>114</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="K33" s="8" t="s">
         <v>100</v>
       </c>
@@ -3712,7 +3726,9 @@
         <v>115</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="K34" s="8" t="s">
         <v>100</v>
       </c>
@@ -3738,7 +3754,9 @@
         <v>104</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="K35" s="11" t="s">
         <v>100</v>
       </c>
@@ -3828,7 +3846,7 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19" xr:uid="{C2605A09-1650-483D-820D-241861D95A0B}">
       <formula1>"T60, PLANETS"</formula1>
     </dataValidation>
@@ -3869,29 +3887,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="K1" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="O1" s="67" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="O1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.4">
       <c r="D2" s="23" t="s">
@@ -4050,7 +4068,7 @@
       <c r="V5" s="48"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4120,7 +4138,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="70"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4189,7 +4207,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B8" s="70"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4276,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="71"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4326,7 +4344,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4396,7 +4414,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="71"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4464,7 +4482,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4534,7 +4552,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="70"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4602,7 +4620,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B14" s="70"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4670,7 +4688,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B15" s="71"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1758" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B68C1AB-F9A4-4C62-B161-A9B32DBAC42F}"/>
+  <xr:revisionPtr revIDLastSave="1764" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3942D5-C83E-40B2-BF45-70EBFCD10B7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -896,10 +896,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>arcsec/pixel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1007,10 +1003,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pixel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1117,10 +1109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>str/n_pix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リードノイズのシグナル換算（比較用）</t>
     <rPh sb="11" eb="13">
       <t>カンサン</t>
@@ -1162,6 +1150,18 @@
   </si>
   <si>
     <t>τ_s_grating</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str/pix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arcsec/pix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2063,32 +2063,32 @@
         <v>97</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" t="s">
         <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R3" s="37" t="s">
         <v>72</v>
       </c>
       <c r="S3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" t="s">
         <v>151</v>
       </c>
-      <c r="T3" t="s">
-        <v>152</v>
-      </c>
       <c r="U3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V3" s="38" t="s">
         <v>71</v>
@@ -2100,10 +2100,10 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>100</v>
@@ -2112,19 +2112,19 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>100</v>
@@ -2137,16 +2137,16 @@
         <v>100</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U4" t="s">
         <v>100</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.4">
@@ -2518,7 +2518,7 @@
         <v>3169.252</v>
       </c>
       <c r="K10" s="32">
-        <f t="shared" si="0"/>
+        <f>$F$27 * F10 * (2*G10+1) *$X$20*$X$19*(E10*10^2)*H10 * EXP(-((I10*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
         <v>1.6774403049746973E-7</v>
       </c>
       <c r="L10" s="44">
@@ -3073,17 +3073,17 @@
         <v>121</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
         <v>112</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L19" s="22">
         <f>2.35*10^-11*L21</f>
@@ -3096,7 +3096,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R19" s="22" cm="1">
         <f t="array" ref="R19">_xlfn.IFS($F$19="T60", 0.6, $F$19="PLANETS", 1.8)</f>
@@ -3110,7 +3110,7 @@
         <v>82</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X19" s="20">
         <v>299792458</v>
@@ -3125,7 +3125,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="12">
         <v>600</v>
@@ -3149,10 +3149,10 @@
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R20" s="9">
         <f>(R19/2)^2*PI()</f>
@@ -3166,7 +3166,7 @@
         <v>120</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X20" s="9">
         <f>6.62606957*10^(-34)</f>
@@ -3180,7 +3180,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="L21" s="9">
         <v>0.3</v>
@@ -3208,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X21" s="9">
         <f xml:space="preserve"> 1.3806488*10^-23</f>
@@ -3279,7 +3279,7 @@
         <v>91</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="22">
         <v>100</v>
@@ -3333,7 +3333,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="9">
         <v>20</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="M25" s="52"/>
       <c r="N25" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14" t="s">
@@ -3421,31 +3421,31 @@
         <v>93</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="20">
         <v>1800</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L26" s="57">
         <f>$F$24/$L$25 *$F$26 * $L$31</f>
         <v>7706.4931743399939</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="25" t="s">
         <v>100</v>
@@ -3471,32 +3471,32 @@
         <v>94</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="54">
         <v>5000000000000000</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" s="60">
         <f>($F$23 / $L$25)^2 * $L$31</f>
         <v>196.39562515260886</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R27" s="9">
         <v>15</v>
@@ -3512,14 +3512,14 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="55" t="s">
         <v>147</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>148</v>
       </c>
       <c r="F28" s="56">
         <f>2.99 * 10^-6</f>
@@ -3527,10 +3527,10 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>100</v>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="55" t="s">
@@ -3592,7 +3592,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L30" s="62">
         <v>0.7</v>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="L31" s="9">
         <f>L30/L21</f>
@@ -3647,11 +3647,11 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="H32" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>100</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>100</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>100</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>100</v>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F65C812-4EC6-4423-9ED0-ACD1DFF7F814}">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1764" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3942D5-C83E-40B2-BF45-70EBFCD10B7F}"/>
+  <xr:revisionPtr revIDLastSave="1766" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7340727A-67E6-45B5-A0ED-DB0E231705C1}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="192">
   <si>
     <t>システムゲイン</t>
     <phoneticPr fontId="1"/>
@@ -1162,6 +1162,14 @@
   </si>
   <si>
     <t>pix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_plate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_slit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1949,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3178,7 +3186,9 @@
         <v>52</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="K21" s="8" t="s">
         <v>188</v>
       </c>
@@ -3590,7 +3600,9 @@
         <v>54</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="K30" s="6" t="s">
         <v>161</v>
       </c>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1766" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7340727A-67E6-45B5-A0ED-DB0E231705C1}"/>
+  <xr:revisionPtr revIDLastSave="1776" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D95E2C9-D83B-4414-99DA-1A26618147F3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="199">
   <si>
     <t>システムゲイン</t>
     <phoneticPr fontId="1"/>
@@ -1171,6 +1171,29 @@
   <si>
     <t>w_slit</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
   </si>
 </sst>
 </file>
@@ -1957,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2181,27 +2204,27 @@
       <c r="I5" s="43">
         <v>2552.5691000000002</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="32" t="e">
         <f t="shared" ref="K5:K16" si="0">$F$27 * F5 * (2*G5+1) *$X$20*$X$19*(E5*10^2)*H5 * EXP(-((I5*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
-        <v>6.3746514124132658E-7</v>
-      </c>
-      <c r="L5" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="44" t="e">
         <f t="shared" ref="L5:L16" si="1">((K5 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>6591.8666740121225</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" ref="M5:M16" si="2">(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
         <v>34354.26430955001</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="45" t="e">
         <f>L5/SQRT(L5 + M5 + $L$26 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>29.825002453698012</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O5" s="44"/>
       <c r="R5" s="46"/>
-      <c r="S5" s="43">
+      <c r="S5" s="43" t="e">
         <f>L5/N5</f>
-        <v>221.01814356078268</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V5" s="47"/>
       <c r="W5" s="48"/>
@@ -2230,54 +2253,54 @@
       <c r="I6" s="43">
         <v>2961.84</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.4366184456731951E-6</v>
-      </c>
-      <c r="L6" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>14977.847733853952</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="44">
         <f t="shared" si="2"/>
         <v>34636.71146109578</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="45" t="e">
         <f t="shared" ref="N6:N16" si="4">L6/SQRT(L6 + M6 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>57.525143978830073</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6">
         <f>(F6*(2*G6+1)*E6*H6) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>6.0132395889515431</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="24" t="e">
         <f>L6/$L$5</f>
-        <v>2.2721709152436063</v>
-      </c>
-      <c r="R6" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="36" t="e">
         <f t="shared" ref="R6:R16" si="5">$X$20*$X$19/$X$21 * ((I6-I$5)*10^2) / (LN(P6) - LN(Q6))</f>
-        <v>605.04793819016436</v>
-      </c>
-      <c r="S6" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="43" t="e">
         <f>L6/N6</f>
-        <v>260.37045190822948</v>
-      </c>
-      <c r="T6" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="24" t="e">
         <f t="shared" ref="T6:T16" si="6">ABS(- $X$20*$X$19/$X$21 * ((I6 - I$5)*10^2) * (LN(P6) - LN(Q6))^-2 / Q6 )</f>
-        <v>273.61142830558987</v>
-      </c>
-      <c r="U6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" t="e">
         <f>SQRT( (1/L$5 * S6)^2 + (L6/L$5^2 * S$5)^2)</f>
-        <v>8.5814132817726971E-2</v>
-      </c>
-      <c r="V6" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" s="38" t="e">
         <f>T6*U6</f>
-        <v>23.479727449063869</v>
-      </c>
-      <c r="W6" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="39" t="e">
         <f>R6/V6</f>
-        <v>25.768950661916115</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2306,53 +2329,53 @@
       <c r="I7">
         <v>3382.9299000000001</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>4.1735200516951176E-7</v>
-      </c>
-      <c r="L7" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>3725.9626913819097</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="44">
         <f t="shared" si="2"/>
         <v>29659.558116780237</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>16.408403336363033</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P7">
         <f>(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>4.7951439090679582</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="24" t="e">
         <f>L7/$L$5</f>
-        <v>0.56523635498745795</v>
-      </c>
-      <c r="R7" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>558.76506727236131</v>
-      </c>
-      <c r="S7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
         <f>L7/N7</f>
-        <v>227.07649336756123</v>
-      </c>
-      <c r="T7" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>462.34705326214009</v>
-      </c>
-      <c r="U7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" t="e">
         <f>SQRT( (1/L$5 * S7)^2 + (L7/L$5^2 * S$5)^2)</f>
-        <v>3.931707820742851E-2</v>
-      </c>
-      <c r="V7" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="38" t="e">
         <f>T7*U7</f>
-        <v>18.178135252081677</v>
-      </c>
-      <c r="W7" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="39" t="e">
         <f>R7/V7</f>
-        <v>30.738305085961667</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
@@ -2379,53 +2402,53 @@
       <c r="I8">
         <v>3359.002</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.3729366469159757E-7</v>
-      </c>
-      <c r="L8" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1226.460731112772</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M8" s="44">
         <f t="shared" si="2"/>
         <v>29677.80854811089</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>5.5359274271093017</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P16" si="7">(F8*(2*G8+1)*E8*H8) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>1.4894660524107943</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f t="shared" ref="Q8:Q16" si="8">L8/$L$5</f>
-        <v>0.186056665245975</v>
-      </c>
-      <c r="R8" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>557.79288081214361</v>
-      </c>
-      <c r="S8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" t="e">
         <f t="shared" ref="S8:S16" si="9">L8/N8</f>
-        <v>221.54566642380891</v>
-      </c>
-      <c r="T8" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1441.2489018307504</v>
-      </c>
-      <c r="U8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" t="e">
         <f t="shared" ref="U8:U16" si="10">SQRT( (1/L$5 * S8)^2 + (L8/L$5^2 * S$5)^2)</f>
-        <v>3.4182994540353076E-2</v>
-      </c>
-      <c r="V8" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="38" t="e">
         <f t="shared" ref="V8:V16" si="11">T8*U8</f>
-        <v>49.266203342570407</v>
-      </c>
-      <c r="W8" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="39" t="e">
         <f t="shared" ref="W8:W16" si="12">R8/V8</f>
-        <v>11.322018807366888</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
@@ -2452,53 +2475,53 @@
       <c r="I9">
         <v>3287.2629000000002</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.2815183152777711E-7</v>
-      </c>
-      <c r="L9" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1146.7400076100769</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="44">
         <f t="shared" si="2"/>
         <v>29728.214501309831</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>5.1776350575712318</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
         <v>1.1705616422925744</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.17396286428713773</v>
-      </c>
-      <c r="R9" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>554.480760762459</v>
-      </c>
-      <c r="S9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
         <f t="shared" si="9"/>
-        <v>221.47949688597777</v>
-      </c>
-      <c r="T9" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1671.9241241640348</v>
-      </c>
-      <c r="U9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
         <f t="shared" si="10"/>
-        <v>3.4101433385914509E-2</v>
-      </c>
-      <c r="V9" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>57.015009146483287</v>
-      </c>
-      <c r="W9" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>9.7251718286650419</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -2525,53 +2548,53 @@
       <c r="I10">
         <v>3169.252</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="32" t="e">
         <f>$F$27 * F10 * (2*G10+1) *$X$20*$X$19*(E10*10^2)*H10 * EXP(-((I10*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
-        <v>1.6774403049746973E-7</v>
-      </c>
-      <c r="L10" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1503.7870402692233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M10" s="44">
         <f t="shared" si="2"/>
         <v>29782.965795301767</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>6.7614132581194291</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
         <v>1.1545625272500089</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.2281276479995836</v>
-      </c>
-      <c r="R10" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>547.16623520349731</v>
-      </c>
-      <c r="S10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
         <f t="shared" si="9"/>
-        <v>222.40720731918046</v>
-      </c>
-      <c r="T10" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1479.1263579353124</v>
-      </c>
-      <c r="U10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
         <f t="shared" si="10"/>
-        <v>3.4595788027130883E-2</v>
-      </c>
-      <c r="V10" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>51.171541944472189</v>
-      </c>
-      <c r="W10" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>10.692783809353335</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
@@ -2600,53 +2623,53 @@
       <c r="I11">
         <v>3489.2150999999999</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.3833822868470706E-7</v>
-      </c>
-      <c r="L11" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1250.1948626961212</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M11" s="44">
         <f t="shared" si="2"/>
         <v>30023.697675234613</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>5.6219284765815454</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
         <v>2.0508270783837399</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.18965718278631283</v>
-      </c>
-      <c r="R11" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>566.04327713544251</v>
-      </c>
-      <c r="S11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
         <f t="shared" si="9"/>
-        <v>222.37829383704846</v>
-      </c>
-      <c r="T11" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1253.6058809047045</v>
-      </c>
-      <c r="U11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
         <f t="shared" si="10"/>
-        <v>3.4329349134759886E-2</v>
-      </c>
-      <c r="V11" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>43.035473962965824</v>
-      </c>
-      <c r="W11" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>13.152946279214934</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2673,53 +2696,53 @@
       <c r="I12">
         <v>3332.4121</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.9680215771456142E-7</v>
-      </c>
-      <c r="L12" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1778.5985175886901</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M12" s="44">
         <f t="shared" si="2"/>
         <v>30024.566743393221</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>7.9556159894860157</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
         <v>2.0031739976454572</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.26981712548900066</v>
-      </c>
-      <c r="R12" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>559.68256383508378</v>
-      </c>
-      <c r="S12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
         <f t="shared" si="9"/>
-        <v>223.56515446940259</v>
-      </c>
-      <c r="T12" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1034.6974779813049</v>
-      </c>
-      <c r="U12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
         <f t="shared" si="10"/>
-        <v>3.5101141116107251E-2</v>
-      </c>
-      <c r="V12" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>36.319062187102062</v>
-      </c>
-      <c r="W12" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>15.410160123403271</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
@@ -2748,53 +2771,53 @@
       <c r="I13">
         <v>3196.0990999999999</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>7.9708104528459166E-8</v>
-      </c>
-      <c r="L13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>736.20838411150044</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" si="2"/>
         <v>30685.058543930998</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>3.3056905591701389</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
         <v>0.58510257915491859</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.11168435596762595</v>
-      </c>
-      <c r="R13" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>559.07870609384429</v>
-      </c>
-      <c r="S13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
         <f t="shared" si="9"/>
-        <v>222.70940698584877</v>
-      </c>
-      <c r="T13" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>3022.6738332367927</v>
-      </c>
-      <c r="U13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
         <f t="shared" si="10"/>
-        <v>3.3992372419289069E-2</v>
-      </c>
-      <c r="V13" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>102.74785464142512</v>
-      </c>
-      <c r="W13" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>5.4412689008928377</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2821,53 +2844,53 @@
       <c r="I14">
         <v>3081.1588999999999</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>4.9699076204168547E-7</v>
-      </c>
-      <c r="L14" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>4593.9986358084698</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="2"/>
         <v>30709.392452371849</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>19.86500366043116</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
         <v>2.7693423850317664</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.69691922834542774</v>
-      </c>
-      <c r="R14" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>551.22506762590467</v>
-      </c>
-      <c r="S14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
         <f t="shared" si="9"/>
-        <v>231.26090054336086</v>
-      </c>
-      <c r="T14" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>573.27528473696327</v>
-      </c>
-      <c r="U14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
         <f t="shared" si="10"/>
-        <v>4.2152277293627985E-2</v>
-      </c>
-      <c r="V14" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>24.164858767816014</v>
-      </c>
-      <c r="W14" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>22.811019626568402</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
@@ -2894,53 +2917,53 @@
       <c r="I15">
         <v>2999.355</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>2.0286674900304395E-7</v>
-      </c>
-      <c r="L15" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1877.7724170523293</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M15" s="44">
         <f t="shared" si="2"/>
         <v>30751.107723984769</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>8.3306863033468819</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
         <v>0.92906664077249623</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.28486201404152917</v>
-      </c>
-      <c r="R15" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>543.76462868521344</v>
-      </c>
-      <c r="S15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
         <f t="shared" si="9"/>
-        <v>225.4042882754963</v>
-      </c>
-      <c r="T15" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>1614.7096232520682</v>
-      </c>
-      <c r="U15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
         <f t="shared" si="10"/>
-        <v>3.5503157125176675E-2</v>
-      </c>
-      <c r="V15" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>57.327289465853013</v>
-      </c>
-      <c r="W15" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>9.4852666810473689</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
@@ -2967,53 +2990,53 @@
       <c r="I16">
         <v>2928.3181</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>1.2459790722788288E-7</v>
-      </c>
-      <c r="L16" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="44" t="e">
         <f t="shared" si="1"/>
-        <v>1154.5074114616941</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="44">
         <f t="shared" si="2"/>
         <v>30783.263245853053</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>5.1571361330921288</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
         <v>0.48124628561375116</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.1751411957425113</v>
-      </c>
-      <c r="R16" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="36" t="e">
         <f t="shared" si="5"/>
-        <v>534.84974768160941</v>
-      </c>
-      <c r="S16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" si="9"/>
-        <v>223.86599493728539</v>
-      </c>
-      <c r="T16" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="24" t="e">
         <f t="shared" si="6"/>
-        <v>3021.2312770497811</v>
-      </c>
-      <c r="U16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="10"/>
-        <v>3.4464900301556523E-2</v>
-      </c>
-      <c r="V16" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="38" t="e">
         <f t="shared" si="11"/>
-        <v>104.126434751465</v>
-      </c>
-      <c r="W16" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="39" t="e">
         <f t="shared" si="12"/>
-        <v>5.1365414455821883</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
@@ -3329,10 +3352,7 @@
       <c r="W23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="X23" s="12" cm="1">
-        <f t="array" ref="X23">_xlfn.IFS(F20=100, U26, F20=200, U27, F20=300, U28, F20=400, U29, F20=500, U30, F20=600, U31, F20=700, U32, F20=800, U33, F20=900, U34, F20=1000, U35, F20=1200, U36)</f>
-        <v>106.393</v>
-      </c>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
@@ -3414,9 +3434,6 @@
         <v>123</v>
       </c>
       <c r="T25" t="s">
-        <v>63</v>
-      </c>
-      <c r="U25" t="s">
         <v>80</v>
       </c>
       <c r="V25" s="39"/>
@@ -3462,12 +3479,6 @@
       </c>
       <c r="R26" s="9">
         <v>0.98</v>
-      </c>
-      <c r="T26">
-        <v>100</v>
-      </c>
-      <c r="U26">
-        <v>7.36</v>
       </c>
       <c r="V26" s="39"/>
       <c r="W26"/>
@@ -3511,11 +3522,11 @@
       <c r="R27" s="9">
         <v>15</v>
       </c>
-      <c r="T27">
-        <v>200</v>
+      <c r="T27" t="s">
+        <v>192</v>
       </c>
       <c r="U27">
-        <v>20.725999999999999</v>
+        <v>7.36</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27"/>
@@ -3548,11 +3559,11 @@
       <c r="R28" s="9">
         <v>0.5</v>
       </c>
-      <c r="T28">
-        <v>300</v>
+      <c r="T28" t="s">
+        <v>193</v>
       </c>
       <c r="U28">
-        <v>37.607999999999997</v>
+        <v>20.725999999999999</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28"/>
@@ -3586,11 +3597,11 @@
         <f>$R$26^$R$27 * $R$28</f>
         <v>0.36928455132270177</v>
       </c>
-      <c r="T29">
-        <v>400</v>
+      <c r="T29" t="s">
+        <v>194</v>
       </c>
       <c r="U29">
-        <v>57.649000000000001</v>
+        <v>37.607999999999997</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29"/>
@@ -3610,11 +3621,11 @@
         <v>0.7</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="T30">
-        <v>500</v>
+      <c r="T30" t="s">
+        <v>195</v>
       </c>
       <c r="U30">
-        <v>80.578999999999994</v>
+        <v>57.649000000000001</v>
       </c>
       <c r="V30" s="39"/>
       <c r="W30"/>
@@ -3648,11 +3659,11 @@
       <c r="R31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="T31">
-        <v>600</v>
+      <c r="T31" t="s">
+        <v>196</v>
       </c>
       <c r="U31">
-        <v>106.393</v>
+        <v>80.578999999999994</v>
       </c>
       <c r="V31" s="39"/>
       <c r="W31"/>
@@ -3686,11 +3697,11 @@
       <c r="R32" s="22">
         <v>0.9</v>
       </c>
-      <c r="T32">
-        <v>700</v>
+      <c r="T32" t="s">
+        <v>197</v>
       </c>
       <c r="U32">
-        <v>135.33000000000001</v>
+        <v>106.393</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32"/>
@@ -3724,11 +3735,11 @@
         <f>R21*R29*L32</f>
         <v>9.3952160689976222E-2</v>
       </c>
-      <c r="T33">
-        <v>800</v>
+      <c r="T33" t="s">
+        <v>198</v>
       </c>
       <c r="U33">
-        <v>167.81200000000001</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="V33" s="39"/>
       <c r="W33"/>
@@ -3752,12 +3763,6 @@
       <c r="O34" s="35"/>
       <c r="Q34" s="36"/>
       <c r="R34"/>
-      <c r="T34">
-        <v>900</v>
-      </c>
-      <c r="U34">
-        <v>204.38800000000001</v>
-      </c>
       <c r="V34" s="39"/>
       <c r="W34"/>
     </row>
@@ -3780,12 +3785,6 @@
       <c r="O35" s="35"/>
       <c r="Q35" s="36"/>
       <c r="R35"/>
-      <c r="T35">
-        <v>1000</v>
-      </c>
-      <c r="U35">
-        <v>245.68299999999999</v>
-      </c>
       <c r="V35" s="39"/>
       <c r="W35"/>
     </row>
@@ -3794,12 +3793,6 @@
       <c r="O36" s="35"/>
       <c r="Q36" s="36"/>
       <c r="R36"/>
-      <c r="T36">
-        <v>1200</v>
-      </c>
-      <c r="U36">
-        <v>345.17899999999997</v>
-      </c>
       <c r="V36" s="39"/>
       <c r="W36"/>
     </row>
@@ -3858,7 +3851,7 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19" xr:uid="{C2605A09-1650-483D-820D-241861D95A0B}">
       <formula1>"T60, PLANETS"</formula1>
     </dataValidation>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1776" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D95E2C9-D83B-4414-99DA-1A26618147F3}"/>
+  <xr:revisionPtr revIDLastSave="1806" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AC066A-48CD-47BC-B662-EB5EAF27DAAC}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="200">
   <si>
     <t>システムゲイン</t>
     <phoneticPr fontId="1"/>
@@ -1194,6 +1194,13 @@
   </si>
   <si>
     <t>A_6</t>
+  </si>
+  <si>
+    <t>Partition functionの係数</t>
+    <rPh sb="19" eb="21">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1980,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2001,6 +2008,7 @@
     <col min="18" max="18" width="11.75" style="36" customWidth="1"/>
     <col min="19" max="19" width="10.875" customWidth="1"/>
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.125" style="38" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="39" customWidth="1"/>
     <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
@@ -2204,27 +2212,27 @@
       <c r="I5" s="43">
         <v>2552.5691000000002</v>
       </c>
-      <c r="K5" s="32" t="e">
+      <c r="K5" s="32">
         <f t="shared" ref="K5:K16" si="0">$F$27 * F5 * (2*G5+1) *$X$20*$X$19*(E5*10^2)*H5 * EXP(-((I5*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="44" t="e">
+        <v>6.3749588734207388E-7</v>
+      </c>
+      <c r="L5" s="44">
         <f t="shared" ref="L5:L16" si="1">((K5 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>#DIV/0!</v>
+        <v>6592.1846117059022</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" ref="M5:M16" si="2">(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
         <v>34354.26430955001</v>
       </c>
-      <c r="N5" s="45" t="e">
+      <c r="N5" s="45">
         <f>L5/SQRT(L5 + M5 + $L$26 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>#DIV/0!</v>
+        <v>29.826343904301439</v>
       </c>
       <c r="O5" s="44"/>
       <c r="R5" s="46"/>
-      <c r="S5" s="43" t="e">
+      <c r="S5" s="43">
         <f>L5/N5</f>
-        <v>#DIV/0!</v>
+        <v>221.01886281661237</v>
       </c>
       <c r="V5" s="47"/>
       <c r="W5" s="48"/>
@@ -2253,54 +2261,54 @@
       <c r="I6" s="43">
         <v>2961.84</v>
       </c>
-      <c r="K6" s="32" t="e">
+      <c r="K6" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="44" t="e">
+        <v>1.4366877363882608E-6</v>
+      </c>
+      <c r="L6" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14978.570142634622</v>
       </c>
       <c r="M6" s="44">
         <f t="shared" si="2"/>
         <v>34636.71146109578</v>
       </c>
-      <c r="N6" s="45" t="e">
+      <c r="N6" s="45">
         <f t="shared" ref="N6:N16" si="4">L6/SQRT(L6 + M6 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>#DIV/0!</v>
+        <v>57.52761201081227</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6">
         <f>(F6*(2*G6+1)*E6*H6) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>6.0132395889515431</v>
       </c>
-      <c r="Q6" s="24" t="e">
+      <c r="Q6" s="24">
         <f>L6/$L$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="36" t="e">
+        <v>2.2721709152436071</v>
+      </c>
+      <c r="R6" s="36">
         <f t="shared" ref="R6:R16" si="5">$X$20*$X$19/$X$21 * ((I6-I$5)*10^2) / (LN(P6) - LN(Q6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="43" t="e">
+        <v>605.04793819016447</v>
+      </c>
+      <c r="S6" s="43">
         <f>L6/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="24" t="e">
+        <v>260.37183917558428</v>
+      </c>
+      <c r="T6" s="24">
         <f t="shared" ref="T6:T16" si="6">ABS(- $X$20*$X$19/$X$21 * ((I6 - I$5)*10^2) * (LN(P6) - LN(Q6))^-2 / Q6 )</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>273.61142830558993</v>
+      </c>
+      <c r="U6">
         <f>SQRT( (1/L$5 * S6)^2 + (L6/L$5^2 * S$5)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" s="38" t="e">
+        <v>8.5810310996589978E-2</v>
+      </c>
+      <c r="V6" s="38">
         <f>T6*U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" s="39" t="e">
+        <v>23.478681755123855</v>
+      </c>
+      <c r="W6" s="39">
         <f>R6/V6</f>
-        <v>#DIV/0!</v>
+        <v>25.770098359892895</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2329,53 +2337,53 @@
       <c r="I7">
         <v>3382.9299000000001</v>
       </c>
-      <c r="K7" s="32" t="e">
+      <c r="K7" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="44" t="e">
+        <v>4.1737213481420576E-7</v>
+      </c>
+      <c r="L7" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3726.1424013250548</v>
       </c>
       <c r="M7" s="44">
         <f t="shared" si="2"/>
         <v>29659.558116780237</v>
       </c>
-      <c r="N7" s="45" t="e">
+      <c r="N7" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>16.409166148845959</v>
       </c>
       <c r="P7">
         <f>(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>4.7951439090679582</v>
       </c>
-      <c r="Q7" s="24" t="e">
+      <c r="Q7" s="24">
         <f>L7/$L$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="36" t="e">
+        <v>0.56523635498745795</v>
+      </c>
+      <c r="R7" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>558.76506727236131</v>
+      </c>
+      <c r="S7">
         <f>L7/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="24" t="e">
+        <v>227.07688907075337</v>
+      </c>
+      <c r="T7" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>462.34705326214009</v>
+      </c>
+      <c r="U7">
         <f>SQRT( (1/L$5 * S7)^2 + (L7/L$5^2 * S$5)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" s="38" t="e">
+        <v>3.9315264284317107E-2</v>
+      </c>
+      <c r="V7" s="38">
         <f>T7*U7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" s="39" t="e">
+        <v>18.177296590076274</v>
+      </c>
+      <c r="W7" s="39">
         <f>R7/V7</f>
-        <v>#DIV/0!</v>
+        <v>30.739723286322668</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
@@ -2402,53 +2410,53 @@
       <c r="I8">
         <v>3359.002</v>
       </c>
-      <c r="K8" s="32" t="e">
+      <c r="K8" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="44" t="e">
+        <v>1.3730028661423062E-7</v>
+      </c>
+      <c r="L8" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1226.5198855398328</v>
       </c>
       <c r="M8" s="44">
         <f t="shared" si="2"/>
         <v>29677.80854811089</v>
       </c>
-      <c r="N8" s="45" t="e">
+      <c r="N8" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.5361910988165741</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P16" si="7">(F8*(2*G8+1)*E8*H8) / (F$5*(2*G$5+1)*E$5*H$5)</f>
         <v>1.4894660524107943</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f t="shared" ref="Q8:Q16" si="8">L8/$L$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="36" t="e">
+        <v>0.186056665245975</v>
+      </c>
+      <c r="R8" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" t="e">
+        <v>557.79288081214361</v>
+      </c>
+      <c r="S8">
         <f t="shared" ref="S8:S16" si="9">L8/N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="24" t="e">
+        <v>221.54579992768237</v>
+      </c>
+      <c r="T8" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" t="e">
+        <v>1441.2489018307504</v>
+      </c>
+      <c r="U8">
         <f t="shared" ref="U8:U16" si="10">SQRT( (1/L$5 * S8)^2 + (L8/L$5^2 * S$5)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="38" t="e">
+        <v>3.4181369528453964E-2</v>
+      </c>
+      <c r="V8" s="38">
         <f t="shared" ref="V8:V16" si="11">T8*U8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" s="39" t="e">
+        <v>49.263861295955351</v>
+      </c>
+      <c r="W8" s="39">
         <f t="shared" ref="W8:W16" si="12">R8/V8</f>
-        <v>#DIV/0!</v>
+        <v>11.322557065942766</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
@@ -2475,53 +2483,53 @@
       <c r="I9">
         <v>3287.2629000000002</v>
       </c>
-      <c r="K9" s="32" t="e">
+      <c r="K9" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="44" t="e">
+        <v>1.2815801252320444E-7</v>
+      </c>
+      <c r="L9" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1146.7953169619516</v>
       </c>
       <c r="M9" s="44">
         <f t="shared" si="2"/>
         <v>29728.214501309831</v>
       </c>
-      <c r="N9" s="45" t="e">
+      <c r="N9" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.1778818651767047</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
         <v>1.1705616422925744</v>
       </c>
-      <c r="Q9" s="24" t="e">
+      <c r="Q9" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="36" t="e">
+        <v>0.17396286428713773</v>
+      </c>
+      <c r="R9" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" t="e">
+        <v>554.480760762459</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="24" t="e">
+        <v>221.47962174931064</v>
+      </c>
+      <c r="T9" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" t="e">
+        <v>1671.9241241640348</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" s="38" t="e">
+        <v>3.4099810599702421E-2</v>
+      </c>
+      <c r="V9" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" s="39" t="e">
+        <v>57.012295971066941</v>
+      </c>
+      <c r="W9" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>9.725634642811988</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -2548,53 +2556,53 @@
       <c r="I10">
         <v>3169.252</v>
       </c>
-      <c r="K10" s="32" t="e">
+      <c r="K10" s="32">
         <f>$F$27 * F10 * (2*G10+1) *$X$20*$X$19*(E10*10^2)*H10 * EXP(-((I10*10^2) * $X$20*$X$19)/($X$21*$F$20)) / (4*PI()*$X$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="44" t="e">
+        <v>1.6775212109651233E-7</v>
+      </c>
+      <c r="L10" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1503.8595706475162</v>
       </c>
       <c r="M10" s="44">
         <f t="shared" si="2"/>
         <v>29782.965795301767</v>
       </c>
-      <c r="N10" s="45" t="e">
+      <c r="N10" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.7617344159958295</v>
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
         <v>1.1545625272500089</v>
       </c>
-      <c r="Q10" s="24" t="e">
+      <c r="Q10" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="36" t="e">
+        <v>0.22812764799958365</v>
+      </c>
+      <c r="R10" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" t="e">
+        <v>547.16623520349742</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="24" t="e">
+        <v>222.40737037673733</v>
+      </c>
+      <c r="T10" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
+        <v>1479.1263579353126</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="38" t="e">
+        <v>3.4594149115908988E-2</v>
+      </c>
+      <c r="V10" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="39" t="e">
+        <v>51.169117787685579</v>
+      </c>
+      <c r="W10" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>10.693290384130467</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
@@ -2623,53 +2631,53 @@
       <c r="I11">
         <v>3489.2150999999999</v>
       </c>
-      <c r="K11" s="32" t="e">
+      <c r="K11" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="44" t="e">
+        <v>1.3834490098855738E-7</v>
+      </c>
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1250.2551618634254</v>
       </c>
       <c r="M11" s="44">
         <f t="shared" si="2"/>
         <v>30023.697675234613</v>
       </c>
-      <c r="N11" s="45" t="e">
+      <c r="N11" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.6221962046988674</v>
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
         <v>2.0508270783837399</v>
       </c>
-      <c r="Q11" s="24" t="e">
+      <c r="Q11" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="36" t="e">
+        <v>0.18965718278631291</v>
+      </c>
+      <c r="R11" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>566.04327713544274</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="24" t="e">
+        <v>222.37842941491417</v>
+      </c>
+      <c r="T11" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
+        <v>1253.6058809047049</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" s="38" t="e">
+        <v>3.4327717491409664E-2</v>
+      </c>
+      <c r="V11" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="39" t="e">
+        <v>43.033428525266459</v>
+      </c>
+      <c r="W11" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>13.153571456736211</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2696,53 +2704,53 @@
       <c r="I12">
         <v>3332.4121</v>
       </c>
-      <c r="K12" s="32" t="e">
+      <c r="K12" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="44" t="e">
+        <v>1.9681164983981956E-7</v>
+      </c>
+      <c r="L12" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1778.6843026233107</v>
       </c>
       <c r="M12" s="44">
         <f t="shared" si="2"/>
         <v>30024.566743393221</v>
       </c>
-      <c r="N12" s="45" t="e">
+      <c r="N12" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.9559928756933136</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
         <v>2.0031739976454572</v>
       </c>
-      <c r="Q12" s="24" t="e">
+      <c r="Q12" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="36" t="e">
+        <v>0.26981712548900072</v>
+      </c>
+      <c r="R12" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>559.68256383508378</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="24" t="e">
+        <v>223.5653463262195</v>
+      </c>
+      <c r="T12" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
+        <v>1034.6974779813047</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="38" t="e">
+        <v>3.5099483913847568E-2</v>
+      </c>
+      <c r="V12" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="39" t="e">
+        <v>36.31734748410345</v>
+      </c>
+      <c r="W12" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>15.410887705388278</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
@@ -2771,53 +2779,53 @@
       <c r="I13">
         <v>3196.0990999999999</v>
       </c>
-      <c r="K13" s="32" t="e">
+      <c r="K13" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="44" t="e">
+        <v>7.9711948995009023E-8</v>
+      </c>
+      <c r="L13" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>736.24389277806824</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" si="2"/>
         <v>30685.058543930998</v>
       </c>
-      <c r="N13" s="45" t="e">
+      <c r="N13" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.3058488152838996</v>
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
         <v>0.58510257915491859</v>
       </c>
-      <c r="Q13" s="24" t="e">
+      <c r="Q13" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="36" t="e">
+        <v>0.11168435596762598</v>
+      </c>
+      <c r="R13" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" t="e">
+        <v>559.0787060938444</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="24" t="e">
+        <v>222.70948670556223</v>
+      </c>
+      <c r="T13" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
+        <v>3022.6738332367936</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="38" t="e">
+        <v>3.3990746346392722E-2</v>
+      </c>
+      <c r="V13" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="39" t="e">
+        <v>102.74293955343043</v>
+      </c>
+      <c r="W13" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>5.4415292040880452</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2844,53 +2852,53 @@
       <c r="I14">
         <v>3081.1588999999999</v>
       </c>
-      <c r="K14" s="32" t="e">
+      <c r="K14" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="44" t="e">
+        <v>4.9701473280816603E-7</v>
+      </c>
+      <c r="L14" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4594.2202127006813</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="2"/>
         <v>30709.392452371849</v>
       </c>
-      <c r="N14" s="45" t="e">
+      <c r="N14" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>19.865920632916211</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
         <v>2.7693423850317664</v>
       </c>
-      <c r="Q14" s="24" t="e">
+      <c r="Q14" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="36" t="e">
+        <v>0.69691922834542785</v>
+      </c>
+      <c r="R14" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" t="e">
+        <v>551.22506762590479</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="24" t="e">
+        <v>231.26137960545523</v>
+      </c>
+      <c r="T14" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" t="e">
+        <v>573.27528473696339</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="38" t="e">
+        <v>4.2150346946034076E-2</v>
+      </c>
+      <c r="V14" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" s="39" t="e">
+        <v>24.163752147249479</v>
+      </c>
+      <c r="W14" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>22.812064296423841</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
@@ -2917,53 +2925,53 @@
       <c r="I15">
         <v>2999.355</v>
       </c>
-      <c r="K15" s="32" t="e">
+      <c r="K15" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="44" t="e">
+        <v>2.0287653363454703E-7</v>
+      </c>
+      <c r="L15" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1877.8629854241192</v>
       </c>
       <c r="M15" s="44">
         <f t="shared" si="2"/>
         <v>30751.107723984769</v>
       </c>
-      <c r="N15" s="45" t="e">
+      <c r="N15" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.331080682007304</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
         <v>0.92906664077249623</v>
       </c>
-      <c r="Q15" s="24" t="e">
+      <c r="Q15" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="36" t="e">
+        <v>0.28486201404152917</v>
+      </c>
+      <c r="R15" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" t="e">
+        <v>543.76462868521344</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="24" t="e">
+        <v>225.40448917746693</v>
+      </c>
+      <c r="T15" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
+        <v>1614.7096232520682</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" s="38" t="e">
+        <v>3.5501482539665549E-2</v>
+      </c>
+      <c r="V15" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" s="39" t="e">
+        <v>57.324585496513237</v>
+      </c>
+      <c r="W15" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>9.4857140958880173</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
@@ -2990,53 +2998,53 @@
       <c r="I16">
         <v>2928.3181</v>
       </c>
-      <c r="K16" s="32" t="e">
+      <c r="K16" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="44" t="e">
+        <v>1.2460391681109094E-7</v>
+      </c>
+      <c r="L16" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1154.5630954495548</v>
       </c>
       <c r="M16" s="44">
         <f t="shared" si="2"/>
         <v>30783.263245853053</v>
       </c>
-      <c r="N16" s="45" t="e">
+      <c r="N16" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.1573820059390494</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
         <v>0.48124628561375116</v>
       </c>
-      <c r="Q16" s="24" t="e">
+      <c r="Q16" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="36" t="e">
+        <v>0.17514119574251139</v>
+      </c>
+      <c r="R16" s="36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" t="e">
+        <v>534.84974768160976</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="24" t="e">
+        <v>223.86611930626873</v>
+      </c>
+      <c r="T16" s="24">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
+        <v>3021.2312770497838</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="38" t="e">
+        <v>3.446325992321092E-2</v>
+      </c>
+      <c r="V16" s="38">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="39" t="e">
+        <v>104.12147878910116</v>
+      </c>
+      <c r="W16" s="39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>5.136785934100609</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
@@ -3352,7 +3360,10 @@
       <c r="W23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="X23" s="12"/>
+      <c r="X23" s="12">
+        <f>$U$26 * $F$20^0 + $U$27 * $F$20^1 + $U$28 * $F$20^2 + $U$29 * $F$20^3 + $U$30 * $F$20^4 + $U$31 * $F$20^5 + $U$32 * $F$20^6</f>
+        <v>106.38786872000001</v>
+      </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
@@ -3433,9 +3444,10 @@
       <c r="R25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="T25" t="s">
-        <v>80</v>
-      </c>
+      <c r="T25" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="U25" s="15"/>
       <c r="V25" s="39"/>
       <c r="W25"/>
     </row>
@@ -3479,6 +3491,12 @@
       </c>
       <c r="R26" s="9">
         <v>0.98</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="U26" s="22">
+        <v>-1.11391</v>
       </c>
       <c r="V26" s="39"/>
       <c r="W26"/>
@@ -3522,11 +3540,11 @@
       <c r="R27" s="9">
         <v>15</v>
       </c>
-      <c r="T27" t="s">
-        <v>192</v>
-      </c>
-      <c r="U27">
-        <v>7.36</v>
+      <c r="T27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U27" s="9">
+        <v>5.8107600000000002E-2</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27"/>
@@ -3559,11 +3577,11 @@
       <c r="R28" s="9">
         <v>0.5</v>
       </c>
-      <c r="T28" t="s">
-        <v>193</v>
-      </c>
-      <c r="U28">
-        <v>20.725999999999999</v>
+      <c r="T28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="U28" s="9">
+        <v>3.0296700000000001E-4</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28"/>
@@ -3597,11 +3615,12 @@
         <f>$R$26^$R$27 * $R$28</f>
         <v>0.36928455132270177</v>
       </c>
-      <c r="T29" t="s">
-        <v>194</v>
-      </c>
-      <c r="U29">
-        <v>37.607999999999997</v>
+      <c r="T29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="U29" s="9">
+        <f>-2.83724 *10^-7</f>
+        <v>-2.8372400000000001E-7</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29"/>
@@ -3621,11 +3640,12 @@
         <v>0.7</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="T30" t="s">
-        <v>195</v>
-      </c>
-      <c r="U30">
-        <v>57.649000000000001</v>
+      <c r="T30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="U30" s="9">
+        <f>+ 2.31119 * 10^-10</f>
+        <v>2.3111899999999999E-10</v>
       </c>
       <c r="V30" s="39"/>
       <c r="W30"/>
@@ -3659,11 +3679,12 @@
       <c r="R31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="T31" t="s">
-        <v>196</v>
-      </c>
-      <c r="U31">
-        <v>80.578999999999994</v>
+      <c r="T31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="U31" s="9">
+        <f>- 7.15895 * 10^-14</f>
+        <v>-7.1589500000000003E-14</v>
       </c>
       <c r="V31" s="39"/>
       <c r="W31"/>
@@ -3697,11 +3718,12 @@
       <c r="R32" s="22">
         <v>0.9</v>
       </c>
-      <c r="T32" t="s">
-        <v>197</v>
-      </c>
-      <c r="U32">
-        <v>106.393</v>
+      <c r="T32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U32" s="12">
+        <f xml:space="preserve"> + 1.0015 * 10^-17</f>
+        <v>1.0015000000000001E-17</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32"/>
@@ -3734,12 +3756,6 @@
       <c r="R33" s="12">
         <f>R21*R29*L32</f>
         <v>9.3952160689976222E-2</v>
-      </c>
-      <c r="T33" t="s">
-        <v>198</v>
-      </c>
-      <c r="U33">
-        <v>135.33000000000001</v>
       </c>
       <c r="V33" s="39"/>
       <c r="W33"/>
@@ -3851,12 +3867,9 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19" xr:uid="{C2605A09-1650-483D-820D-241861D95A0B}">
       <formula1>"T60, PLANETS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20" xr:uid="{0FCDD7A3-68B0-4DC3-A99D-3E7B638CFBD4}">
-      <formula1>"100, 200, 300, 400, 500, 600, 700, 800, 900, 1000, 1200"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/赤外カメラ観測見積もり.xlsx
+++ b/赤外カメラ観測見積もり.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f068043b4f6ccc76/Documents/PPARC/IR_camera_ESPRIT/観測見積もり/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1806" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AC066A-48CD-47BC-B662-EB5EAF27DAAC}"/>
+  <xr:revisionPtr revIDLastSave="1819" documentId="8_{EB37A21E-167B-460E-AD36-770B7C3064F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED58FCE-73EC-468C-AC84-0D5DBC551DCA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{9CDB5083-10E1-4F1D-BEF8-63AEB4958B60}"/>
   </bookViews>
   <sheets>
     <sheet name="SN計算（新）" sheetId="3" r:id="rId1"/>
@@ -1035,9 +1035,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PLANETS</t>
-  </si>
-  <si>
     <t>ファイバー全体の透過率</t>
     <rPh sb="5" eb="7">
       <t>ゼンタイ</t>
@@ -1201,6 +1198,9 @@
       <t>ケイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T60</t>
   </si>
 </sst>
 </file>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064F073-BF80-4605-AA24-B9D133186576}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2218,21 +2218,21 @@
       </c>
       <c r="L5" s="44">
         <f t="shared" ref="L5:L16" si="1">((K5 * $R$20 * $L$19 * $R$32 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>6592.1846117059022</v>
+        <v>711.82211550652221</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" ref="M5:M16" si="2">(($F$28 * $R$20 * $L$19 * $R$33) / ($X$20 * $X$19/(D5*10^-6))) * $L$20 * (1/$L$25) * $F$26 * $L$31</f>
-        <v>34354.26430955001</v>
+        <v>3709.5631475596606</v>
       </c>
       <c r="N5" s="45">
         <f>L5/SQRT(L5 + M5 + $L$26 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>29.826343904301439</v>
+        <v>6.4119599820950492</v>
       </c>
       <c r="O5" s="44"/>
       <c r="R5" s="46"/>
       <c r="S5" s="43">
         <f>L5/N5</f>
-        <v>221.01886281661237</v>
+        <v>111.01474704992479</v>
       </c>
       <c r="V5" s="47"/>
       <c r="W5" s="48"/>
@@ -2267,15 +2267,15 @@
       </c>
       <c r="L6" s="44">
         <f t="shared" si="1"/>
-        <v>14978.570142634622</v>
+        <v>1617.3815076810949</v>
       </c>
       <c r="M6" s="44">
         <f t="shared" si="2"/>
-        <v>34636.71146109578</v>
+        <v>3740.0617061975786</v>
       </c>
       <c r="N6" s="45">
-        <f t="shared" ref="N6:N16" si="4">L6/SQRT(L6 + M6 + $L$26*$L$31 + ($F$23/$L$25)^2*$L$31)</f>
-        <v>57.52761201081227</v>
+        <f t="shared" ref="N6:N16" si="4">L6/SQRT(L6 + M6 + $L$26 + ($F$23/$L$25)^2*$L$31)</f>
+        <v>14.045437587324765</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6">
@@ -2284,31 +2284,31 @@
       </c>
       <c r="Q6" s="24">
         <f>L6/$L$5</f>
-        <v>2.2721709152436071</v>
+        <v>2.2721709152436067</v>
       </c>
       <c r="R6" s="36">
         <f t="shared" ref="R6:R16" si="5">$X$20*$X$19/$X$21 * ((I6-I$5)*10^2) / (LN(P6) - LN(Q6))</f>
-        <v>605.04793819016447</v>
+        <v>605.04793819016436</v>
       </c>
       <c r="S6" s="43">
         <f>L6/N6</f>
-        <v>260.37183917558428</v>
+        <v>115.15351498487259</v>
       </c>
       <c r="T6" s="24">
         <f t="shared" ref="T6:T16" si="6">ABS(- $X$20*$X$19/$X$21 * ((I6 - I$5)*10^2) * (LN(P6) - LN(Q6))^-2 / Q6 )</f>
-        <v>273.61142830558993</v>
+        <v>273.61142830558987</v>
       </c>
       <c r="U6">
         <f>SQRT( (1/L$5 * S6)^2 + (L6/L$5^2 * S$5)^2)</f>
-        <v>8.5810310996589978E-2</v>
+        <v>0.38954416380822493</v>
       </c>
       <c r="V6" s="38">
         <f>T6*U6</f>
-        <v>23.478681755123855</v>
+        <v>106.58373504767509</v>
       </c>
       <c r="W6" s="39">
         <f>R6/V6</f>
-        <v>25.770098359892895</v>
+        <v>5.6767379930861432</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2343,15 +2343,15 @@
       </c>
       <c r="L7" s="44">
         <f t="shared" si="1"/>
-        <v>3726.1424013250548</v>
+        <v>402.34773796836794</v>
       </c>
       <c r="M7" s="44">
         <f t="shared" si="2"/>
-        <v>29659.558116780237</v>
+        <v>3202.6301821380239</v>
       </c>
       <c r="N7" s="45">
         <f t="shared" si="4"/>
-        <v>16.409166148845959</v>
+        <v>3.7506293891139153</v>
       </c>
       <c r="P7">
         <f>(F7*(2*G7+1)*E7*H7) / (F$5*(2*G$5+1)*E$5*H$5)</f>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="Q7" s="24">
         <f>L7/$L$5</f>
-        <v>0.56523635498745795</v>
+        <v>0.56523635498745806</v>
       </c>
       <c r="R7" s="36">
         <f t="shared" si="5"/>
-        <v>558.76506727236131</v>
+        <v>558.76506727236142</v>
       </c>
       <c r="S7">
         <f>L7/N7</f>
-        <v>227.07688907075337</v>
+        <v>107.27472544639299</v>
       </c>
       <c r="T7" s="24">
         <f t="shared" si="6"/>
@@ -2375,15 +2375,15 @@
       </c>
       <c r="U7">
         <f>SQRT( (1/L$5 * S7)^2 + (L7/L$5^2 * S$5)^2)</f>
-        <v>3.9315264284317107E-2</v>
+        <v>0.17459337365929087</v>
       </c>
       <c r="V7" s="38">
         <f>T7*U7</f>
-        <v>18.177296590076274</v>
+        <v>80.722731830468888</v>
       </c>
       <c r="W7" s="39">
         <f>R7/V7</f>
-        <v>30.739723286322668</v>
+        <v>6.9220287099036817</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
@@ -2416,15 +2416,15 @@
       </c>
       <c r="L8" s="44">
         <f t="shared" si="1"/>
-        <v>1226.5198855398328</v>
+        <v>132.43924905947875</v>
       </c>
       <c r="M8" s="44">
         <f t="shared" si="2"/>
-        <v>29677.80854811089</v>
+        <v>3204.600858234628</v>
       </c>
       <c r="N8" s="45">
         <f t="shared" si="4"/>
-        <v>5.5361910988165741</v>
+        <v>1.2492084908270575</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P16" si="7">(F8*(2*G8+1)*E8*H8) / (F$5*(2*G$5+1)*E$5*H$5)</f>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="S8">
         <f t="shared" ref="S8:S16" si="9">L8/N8</f>
-        <v>221.54579992768237</v>
+        <v>106.018530959388</v>
       </c>
       <c r="T8" s="24">
         <f t="shared" si="6"/>
@@ -2448,15 +2448,15 @@
       </c>
       <c r="U8">
         <f t="shared" ref="U8:U16" si="10">SQRT( (1/L$5 * S8)^2 + (L8/L$5^2 * S$5)^2)</f>
-        <v>3.4181369528453964E-2</v>
+        <v>0.15173994415955433</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" ref="V8:V16" si="11">T8*U8</f>
-        <v>49.263861295955351</v>
+        <v>218.69502788381706</v>
       </c>
       <c r="W8" s="39">
         <f t="shared" ref="W8:W16" si="12">R8/V8</f>
-        <v>11.322557065942766</v>
+        <v>2.5505512686300036</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
@@ -2489,15 +2489,15 @@
       </c>
       <c r="L9" s="44">
         <f t="shared" si="1"/>
-        <v>1146.7953169619516</v>
+        <v>123.83061407644441</v>
       </c>
       <c r="M9" s="44">
         <f t="shared" si="2"/>
-        <v>29728.214501309831</v>
+        <v>3210.0436779300103</v>
       </c>
       <c r="N9" s="45">
         <f t="shared" si="4"/>
-        <v>5.1778818651767047</v>
+        <v>1.1681736728347172</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="9"/>
-        <v>221.47962174931064</v>
+        <v>106.00359942709048</v>
       </c>
       <c r="T9" s="24">
         <f t="shared" si="6"/>
@@ -2521,15 +2521,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="10"/>
-        <v>3.4099810599702421E-2</v>
+        <v>0.15136994375571919</v>
       </c>
       <c r="V9" s="38">
         <f t="shared" si="11"/>
-        <v>57.012295971066941</v>
+        <v>253.07906063854</v>
       </c>
       <c r="W9" s="39">
         <f t="shared" si="12"/>
-        <v>9.725634642811988</v>
+        <v>2.1909389080371047</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -2562,15 +2562,15 @@
       </c>
       <c r="L10" s="44">
         <f t="shared" si="1"/>
-        <v>1503.8595706475162</v>
+        <v>162.38630500459087</v>
       </c>
       <c r="M10" s="44">
         <f t="shared" si="2"/>
-        <v>29782.965795301767</v>
+        <v>3215.9557062198214</v>
       </c>
       <c r="N10" s="45">
         <f t="shared" si="4"/>
-        <v>6.7617344159958295</v>
+        <v>1.5288721070569986</v>
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
@@ -2578,31 +2578,31 @@
       </c>
       <c r="Q10" s="24">
         <f t="shared" si="8"/>
-        <v>0.22812764799958365</v>
+        <v>0.22812764799958363</v>
       </c>
       <c r="R10" s="36">
         <f t="shared" si="5"/>
-        <v>547.16623520349742</v>
+        <v>547.16623520349731</v>
       </c>
       <c r="S10">
         <f t="shared" si="9"/>
-        <v>222.40737037673733</v>
+        <v>106.21313859743067</v>
       </c>
       <c r="T10" s="24">
         <f t="shared" si="6"/>
-        <v>1479.1263579353126</v>
+        <v>1479.1263579353122</v>
       </c>
       <c r="U10">
         <f t="shared" si="10"/>
-        <v>3.4594149115908988E-2</v>
+        <v>0.15339607762050889</v>
       </c>
       <c r="V10" s="38">
         <f t="shared" si="11"/>
-        <v>51.169117787685579</v>
+        <v>226.89218161238577</v>
       </c>
       <c r="W10" s="39">
         <f t="shared" si="12"/>
-        <v>10.693290384130467</v>
+        <v>2.4115693688302398</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
@@ -2637,15 +2637,15 @@
       </c>
       <c r="L11" s="44">
         <f t="shared" si="1"/>
-        <v>1250.2551618634254</v>
+        <v>135.0021770719604</v>
       </c>
       <c r="M11" s="44">
         <f t="shared" si="2"/>
-        <v>30023.697675234613</v>
+        <v>3241.9498623512163</v>
       </c>
       <c r="N11" s="45">
         <f t="shared" si="4"/>
-        <v>5.6221962046988674</v>
+        <v>1.2711280026226688</v>
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
@@ -2653,31 +2653,31 @@
       </c>
       <c r="Q11" s="24">
         <f t="shared" si="8"/>
-        <v>0.18965718278631291</v>
+        <v>0.18965718278631288</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" si="5"/>
-        <v>566.04327713544274</v>
+        <v>566.04327713544262</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>222.37842941491417</v>
+        <v>106.20659508201824</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" si="6"/>
-        <v>1253.6058809047049</v>
+        <v>1253.6058809047047</v>
       </c>
       <c r="U11">
         <f t="shared" si="10"/>
-        <v>3.4327717491409664E-2</v>
+        <v>0.15210747465106539</v>
       </c>
       <c r="V11" s="38">
         <f t="shared" si="11"/>
-        <v>43.033428525266459</v>
+        <v>190.68282475213886</v>
       </c>
       <c r="W11" s="39">
         <f t="shared" si="12"/>
-        <v>13.153571456736211</v>
+        <v>2.9685068797948642</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2710,15 +2710,15 @@
       </c>
       <c r="L12" s="44">
         <f t="shared" si="1"/>
-        <v>1778.6843026233107</v>
+        <v>192.06179706546922</v>
       </c>
       <c r="M12" s="44">
         <f t="shared" si="2"/>
-        <v>30024.566743393221</v>
+        <v>3242.0437040701026</v>
       </c>
       <c r="N12" s="45">
         <f t="shared" si="4"/>
-        <v>7.9559928756933136</v>
+        <v>1.8038151241352312</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="Q12" s="24">
         <f t="shared" si="8"/>
-        <v>0.26981712548900072</v>
+        <v>0.26981712548900066</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="5"/>
@@ -2734,23 +2734,23 @@
       </c>
       <c r="S12">
         <f t="shared" si="9"/>
-        <v>223.5653463262195</v>
+        <v>106.47532249600455</v>
       </c>
       <c r="T12" s="24">
         <f t="shared" si="6"/>
-        <v>1034.6974779813047</v>
+        <v>1034.6974779813049</v>
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>3.5099483913847568E-2</v>
+        <v>0.15538769235300351</v>
       </c>
       <c r="V12" s="38">
         <f t="shared" si="11"/>
-        <v>36.31734748410345</v>
+        <v>160.77925338698762</v>
       </c>
       <c r="W12" s="39">
         <f t="shared" si="12"/>
-        <v>15.410887705388278</v>
+        <v>3.4810620900692695</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
@@ -2785,15 +2785,15 @@
       </c>
       <c r="L13" s="44">
         <f t="shared" si="1"/>
-        <v>736.24389277806824</v>
+        <v>79.49939453385899</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" si="2"/>
-        <v>30685.058543930998</v>
+        <v>3313.3634104233879</v>
       </c>
       <c r="N13" s="45">
         <f t="shared" si="4"/>
-        <v>3.3058488152838996</v>
+        <v>0.74800801995877908</v>
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
@@ -2801,31 +2801,31 @@
       </c>
       <c r="Q13" s="24">
         <f t="shared" si="8"/>
-        <v>0.11168435596762598</v>
+        <v>0.11168435596762596</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="5"/>
-        <v>559.0787060938444</v>
+        <v>559.07870609384429</v>
       </c>
       <c r="S13">
         <f t="shared" si="9"/>
-        <v>222.70948670556223</v>
+        <v>106.28147347703573</v>
       </c>
       <c r="T13" s="24">
         <f t="shared" si="6"/>
-        <v>3022.6738332367936</v>
+        <v>3022.6738332367922</v>
       </c>
       <c r="U13">
         <f t="shared" si="10"/>
-        <v>3.3990746346392722E-2</v>
+        <v>0.15032158640031998</v>
       </c>
       <c r="V13" s="38">
         <f t="shared" si="11"/>
-        <v>102.74293955343043</v>
+        <v>454.37312578289084</v>
       </c>
       <c r="W13" s="39">
         <f t="shared" si="12"/>
-        <v>5.4415292040880452</v>
+        <v>1.2304396417163632</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2858,15 +2858,15 @@
       </c>
       <c r="L14" s="44">
         <f t="shared" si="1"/>
-        <v>4594.2202127006813</v>
+        <v>496.08251945801544</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="2"/>
-        <v>30709.392452371849</v>
+        <v>3315.9909785521922</v>
       </c>
       <c r="N14" s="45">
         <f t="shared" si="4"/>
-        <v>19.865920632916211</v>
+        <v>4.5833547879852423</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="9"/>
-        <v>231.26137960545523</v>
+        <v>108.23567941073226</v>
       </c>
       <c r="T14" s="24">
         <f t="shared" si="6"/>
@@ -2890,15 +2890,15 @@
       </c>
       <c r="U14">
         <f t="shared" si="10"/>
-        <v>4.2150346946034076E-2</v>
+        <v>0.18690683832978033</v>
       </c>
       <c r="V14" s="38">
         <f t="shared" si="11"/>
-        <v>24.163752147249479</v>
+        <v>107.1490709627904</v>
       </c>
       <c r="W14" s="39">
         <f t="shared" si="12"/>
-        <v>22.812064296423841</v>
+        <v>5.1444689410076956</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
@@ -2931,15 +2931,15 @@
       </c>
       <c r="L15" s="44">
         <f t="shared" si="1"/>
-        <v>1877.8629854241192</v>
+        <v>202.77108146248989</v>
       </c>
       <c r="M15" s="44">
         <f t="shared" si="2"/>
-        <v>30751.107723984769</v>
+        <v>3320.4953810587158</v>
       </c>
       <c r="N15" s="45">
         <f t="shared" si="4"/>
-        <v>8.331080682007304</v>
+        <v>1.8969503190166752</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
@@ -2947,15 +2947,15 @@
       </c>
       <c r="Q15" s="24">
         <f t="shared" si="8"/>
-        <v>0.28486201404152917</v>
+        <v>0.28486201404152911</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="5"/>
-        <v>543.76462868521344</v>
+        <v>543.76462868521332</v>
       </c>
       <c r="S15">
         <f t="shared" si="9"/>
-        <v>225.40448917746693</v>
+        <v>106.89319558331955</v>
       </c>
       <c r="T15" s="24">
         <f t="shared" si="6"/>
@@ -2963,15 +2963,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="10"/>
-        <v>3.5501482539665549E-2</v>
+        <v>0.15660229969583286</v>
       </c>
       <c r="V15" s="38">
         <f t="shared" si="11"/>
-        <v>57.324585496513237</v>
+        <v>252.86724034226577</v>
       </c>
       <c r="W15" s="39">
         <f t="shared" si="12"/>
-        <v>9.4857140958880173</v>
+        <v>2.1503957094213013</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
@@ -3004,15 +3004,15 @@
       </c>
       <c r="L16" s="44">
         <f t="shared" si="1"/>
-        <v>1154.5630954495548</v>
+        <v>124.66937646577631</v>
       </c>
       <c r="M16" s="44">
         <f t="shared" si="2"/>
-        <v>30783.263245853053</v>
+        <v>3323.9675246574948</v>
       </c>
       <c r="N16" s="45">
         <f t="shared" si="4"/>
-        <v>5.1573820059390494</v>
+        <v>1.170126106632484</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
@@ -3020,31 +3020,31 @@
       </c>
       <c r="Q16" s="24">
         <f t="shared" si="8"/>
-        <v>0.17514119574251139</v>
+        <v>0.17514119574251133</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="5"/>
-        <v>534.84974768160976</v>
+        <v>534.84974768160953</v>
       </c>
       <c r="S16">
         <f t="shared" si="9"/>
-        <v>223.86611930626873</v>
+        <v>106.54353899047975</v>
       </c>
       <c r="T16" s="24">
         <f t="shared" si="6"/>
-        <v>3021.2312770497838</v>
+        <v>3021.231277049782</v>
       </c>
       <c r="U16">
         <f t="shared" si="10"/>
-        <v>3.446325992321092E-2</v>
+        <v>0.15214913674799255</v>
       </c>
       <c r="V16" s="38">
         <f t="shared" si="11"/>
-        <v>104.12147878910116</v>
+        <v>459.67773071915946</v>
       </c>
       <c r="W16" s="39">
         <f t="shared" si="12"/>
-        <v>5.136785934100609</v>
+        <v>1.1635319963071618</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
@@ -3112,17 +3112,17 @@
         <v>121</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
         <v>112</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L19" s="22">
         <f>2.35*10^-11*L21</f>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="R19" s="22" cm="1">
         <f t="array" ref="R19">_xlfn.IFS($F$19="T60", 0.6, $F$19="PLANETS", 1.8)</f>
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>81</v>
@@ -3188,14 +3188,14 @@
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>163</v>
       </c>
       <c r="R20" s="9">
         <f>(R19/2)^2*PI()</f>
-        <v>2.5446900494077327</v>
+        <v>0.28274333882308139</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>119</v>
@@ -3218,10 +3218,10 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="9">
         <v>0.3</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="R21" s="20" cm="1">
         <f t="array" ref="R21">_xlfn.IFS($F$19="T60", R22, $F$19="PLANETS", R23)</f>
-        <v>0.67913999999999997</v>
+        <v>0.66</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>84</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M25" s="52"/>
       <c r="N25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14" t="s">
@@ -3445,7 +3445,7 @@
         <v>123</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="39"/>
@@ -3480,11 +3480,11 @@
         <v>7706.4931743399939</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="25" t="s">
         <v>100</v>
@@ -3493,7 +3493,7 @@
         <v>0.98</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U26" s="22">
         <v>-1.11391</v>
@@ -3516,7 +3516,7 @@
         <v>5000000000000000</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -3528,11 +3528,11 @@
         <v>196.39562515260886</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="25" t="s">
         <v>162</v>
@@ -3541,7 +3541,7 @@
         <v>15</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U27" s="9">
         <v>5.8107600000000002E-2</v>
@@ -3566,10 +3566,10 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>100</v>
@@ -3578,7 +3578,7 @@
         <v>0.5</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U28" s="9">
         <v>3.0296700000000001E-4</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="55" t="s">
@@ -3616,7 +3616,7 @@
         <v>0.36928455132270177</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U29" s="9">
         <f>-2.83724 *10^-7</f>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>161</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="M30" s="8"/>
       <c r="T30" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U30" s="9">
         <f>+ 2.31119 * 10^-10</f>
@@ -3659,7 +3659,7 @@
         <v>154</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L31" s="9">
         <f>L30/L21</f>
@@ -3680,7 +3680,7 @@
         <v>123</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U31" s="9">
         <f>- 7.15895 * 10^-14</f>
@@ -3691,11 +3691,11 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="H32" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>100</v>
@@ -3719,7 +3719,7 @@
         <v>0.9</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U32" s="12">
         <f xml:space="preserve"> + 1.0015 * 10^-17</f>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>100</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="R33" s="12">
         <f>R21*R29*L32</f>
-        <v>9.3952160689976222E-2</v>
+        <v>9.1304334975681467E-2</v>
       </c>
       <c r="V33" s="39"/>
       <c r="W33"/>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>100</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>100</v>
